--- a/medicine/Pharmacie/Ambroise_Andouard/Ambroise_Andouard.xlsx
+++ b/medicine/Pharmacie/Ambroise_Andouard/Ambroise_Andouard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ambroise Andouard est un médecin, pharmacien, chimiste et agronome français né le 30 mars 1839 à Nantes et mort le 4 mars 1914 à Nantes.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ambroise Pierre Andouard est professeur de l'École de médecine de Nantes.
 Directeur de la Station agronomique de Nantes et de la Loire-Inférieure, il se consacre à la chimie agricole et aux expertises relatives aux denrées alimentaires.
@@ -546,8 +560,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Publications
-Le Vignoble de La Roche (1899)
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le Vignoble de La Roche (1899)
 Les Progrès de l'agriculture dans la Loire-Inférieure depuis un siècle (1889)
 Bulletin de la Station agronomique de la Loire-Inférieure (1884-1919)
 Notice biographique sur Pierre-Adolphe Bobierre (1882)
